--- a/excel/collective/zestawy_dla_uczniow/zestaw_037.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_037.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
   <si>
     <t>ZESTAW ZADAŃ NR 37 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Hanna Malinowska</t>
-  </si>
-  <si>
-    <t>Emilia Król</t>
-  </si>
-  <si>
-    <t>Zuzanna Wójcik</t>
-  </si>
-  <si>
-    <t>Natalia Górska</t>
-  </si>
-  <si>
-    <t>Kacper Grabowski</t>
+    <t>Wojciech Kaczmarek</t>
+  </si>
+  <si>
+    <t>Emilia Olszewska</t>
+  </si>
+  <si>
+    <t>Oliwia Górska</t>
+  </si>
+  <si>
+    <t>Lena Malinowska</t>
+  </si>
+  <si>
+    <t>Wojciech Jankowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -163,7 +163,31 @@
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,70</t>
+    <t>2,50</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>0,80</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,40</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>3,90</t>
   </si>
   <si>
     <t>Długopis niebieski</t>
@@ -172,30 +196,6 @@
     <t>2,60</t>
   </si>
   <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>5,10</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,00</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>10,40</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>3,80</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>22,89</t>
+    <t>6,95</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>21,40</t>
+    <t>12,50</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>9,02</t>
+    <t>16,62</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>5,69</t>
+    <t>30,43</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>16,52</t>
+    <t>18,67</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>25,49</t>
-  </si>
-  <si>
-    <t>4,29</t>
-  </si>
-  <si>
-    <t>13,56</t>
-  </si>
-  <si>
-    <t>7,53</t>
-  </si>
-  <si>
-    <t>11,33</t>
+    <t>7,50</t>
+  </si>
+  <si>
+    <t>23,53</t>
+  </si>
+  <si>
+    <t>22,26</t>
+  </si>
+  <si>
+    <t>3,03</t>
+  </si>
+  <si>
+    <t>25,28</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>17,25</t>
-  </si>
-  <si>
-    <t>4,06</t>
-  </si>
-  <si>
-    <t>27,32</t>
-  </si>
-  <si>
-    <t>28,57</t>
-  </si>
-  <si>
-    <t>16,55</t>
+    <t>10,00</t>
+  </si>
+  <si>
+    <t>28,08</t>
+  </si>
+  <si>
+    <t>30,28</t>
+  </si>
+  <si>
+    <t>5,26</t>
+  </si>
+  <si>
+    <t>19,76</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,46 +340,34 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Natalia</t>
+    <t>Julia</t>
   </si>
   <si>
     <t>Malinowska</t>
   </si>
   <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
   </si>
   <si>
     <t>Oliwia</t>
   </si>
   <si>
-    <t>Maciejewska</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Górska</t>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Emilia</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -415,166 +403,121 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Lena Król</t>
-  </si>
-  <si>
-    <t>06.06.1982</t>
-  </si>
-  <si>
-    <t>9 758,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Lewandowski</t>
-  </si>
-  <si>
-    <t>09.12.2003</t>
-  </si>
-  <si>
-    <t>4 096,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Rogalska</t>
-  </si>
-  <si>
-    <t>03.10.1982</t>
-  </si>
-  <si>
-    <t>10 888,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Jaworska</t>
-  </si>
-  <si>
-    <t>28.03.1995</t>
-  </si>
-  <si>
-    <t>3 533,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Piotrowski</t>
-  </si>
-  <si>
-    <t>17.05.1984</t>
-  </si>
-  <si>
-    <t>10 416,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Malinowska</t>
-  </si>
-  <si>
-    <t>05.04.1993</t>
-  </si>
-  <si>
-    <t>4 563,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Czarnecka</t>
-  </si>
-  <si>
-    <t>24.07.2004</t>
-  </si>
-  <si>
-    <t>13 494,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Maciejewska</t>
-  </si>
-  <si>
-    <t>09.10.1986</t>
-  </si>
-  <si>
-    <t>6 193,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Urbaniak</t>
-  </si>
-  <si>
-    <t>24.11.2000</t>
-  </si>
-  <si>
-    <t>4 956,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Szymański</t>
-  </si>
-  <si>
-    <t>21.10.2001</t>
-  </si>
-  <si>
-    <t>10 258,00 zł</t>
+    <t>Zuzanna Zawadzka</t>
+  </si>
+  <si>
+    <t>24.02.1978</t>
+  </si>
+  <si>
+    <t>9 332,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Szymański</t>
+  </si>
+  <si>
+    <t>09.05.2002</t>
+  </si>
+  <si>
+    <t>11 344,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Zieliński</t>
+  </si>
+  <si>
+    <t>22.11.1995</t>
+  </si>
+  <si>
+    <t>10 952,00 zł</t>
   </si>
   <si>
     <t>Anna Górska</t>
   </si>
   <si>
-    <t>21.01.1986</t>
-  </si>
-  <si>
-    <t>13 175,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Wilk</t>
-  </si>
-  <si>
-    <t>22.04.1979</t>
-  </si>
-  <si>
-    <t>7 824,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>18.03.1990</t>
-  </si>
-  <si>
-    <t>11 560,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Grabowski</t>
-  </si>
-  <si>
-    <t>14.02.2001</t>
-  </si>
-  <si>
-    <t>6 951,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Lewandowski</t>
-  </si>
-  <si>
-    <t>04.09.1999</t>
-  </si>
-  <si>
-    <t>14 345,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Bednarska</t>
-  </si>
-  <si>
-    <t>25.03.1984</t>
-  </si>
-  <si>
-    <t>4 097,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Woźniak</t>
-  </si>
-  <si>
-    <t>17.11.1998</t>
-  </si>
-  <si>
-    <t>5 540,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Lewandowski</t>
-  </si>
-  <si>
-    <t>01.07.1979</t>
-  </si>
-  <si>
-    <t>12 838,00 zł</t>
+    <t>01.06.1975</t>
+  </si>
+  <si>
+    <t>11 066,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Zieliński</t>
+  </si>
+  <si>
+    <t>05.12.1979</t>
+  </si>
+  <si>
+    <t>4 673,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Wójcik</t>
+  </si>
+  <si>
+    <t>24.11.2001</t>
+  </si>
+  <si>
+    <t>10 741,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>20.05.1975</t>
+  </si>
+  <si>
+    <t>14 832,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Kaczmarek</t>
+  </si>
+  <si>
+    <t>11.10.1997</t>
+  </si>
+  <si>
+    <t>6 068,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalczyk</t>
+  </si>
+  <si>
+    <t>07.04.1998</t>
+  </si>
+  <si>
+    <t>10 000,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Górska</t>
+  </si>
+  <si>
+    <t>26.11.1992</t>
+  </si>
+  <si>
+    <t>12 384,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Nowak</t>
+  </si>
+  <si>
+    <t>22.05.2000</t>
+  </si>
+  <si>
+    <t>4 963,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Piekarska</t>
+  </si>
+  <si>
+    <t>14.06.1988</t>
+  </si>
+  <si>
+    <t>8 547,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>15.02.1998</t>
+  </si>
+  <si>
+    <t>7 251,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -646,328 +589,319 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 033,00 zł</t>
+  </si>
+  <si>
+    <t>1 374,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 453,00 zł</t>
+  </si>
+  <si>
+    <t>2 020,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 249,00 zł</t>
+  </si>
+  <si>
+    <t>1 574,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 480,00 zł</t>
+  </si>
+  <si>
+    <t>1 820,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 135,00 zł</t>
-  </si>
-  <si>
-    <t>1 430,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
+    <t>1 210,00 zł</t>
+  </si>
+  <si>
+    <t>1 428,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>526,00 zł</t>
+  </si>
+  <si>
+    <t>673,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>1 114,00 zł</t>
+  </si>
+  <si>
+    <t>1 548,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 432,00 zł</t>
+  </si>
+  <si>
+    <t>1 590,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 145,00 zł</t>
+  </si>
+  <si>
+    <t>1 500,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 376,00 zł</t>
+  </si>
+  <si>
+    <t>1 610,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>648,00 zł</t>
+  </si>
+  <si>
+    <t>791,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>1 797,00 zł</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>928,00 zł</t>
+  </si>
+  <si>
+    <t>1 206,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>1 311,00 zł</t>
+  </si>
+  <si>
+    <t>1 521,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>672,00 zł</t>
+  </si>
+  <si>
+    <t>907,00 zł</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 373,00 zł</t>
+  </si>
+  <si>
+    <t>1 812,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 011,00 zł</t>
+  </si>
+  <si>
+    <t>1 213,00 zł</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 320,00 zł</t>
+  </si>
+  <si>
+    <t>1 756,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 433,00 zł</t>
+  </si>
+  <si>
+    <t>1 863,00 zł</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 100,00 zł</t>
+  </si>
+  <si>
+    <t>1 375,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>1 352,00 zł</t>
+  </si>
+  <si>
+    <t>1 528,00 zł</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 160,00 zł</t>
+  </si>
+  <si>
+    <t>1 346,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>1 112,00 zł</t>
+  </si>
+  <si>
+    <t>1 357,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>902,00 zł</t>
+  </si>
+  <si>
+    <t>1 182,00 zł</t>
+  </si>
+  <si>
+    <t>1 479,00 zł</t>
+  </si>
+  <si>
+    <t>1 671,00 zł</t>
   </si>
   <si>
     <t>łódzkie</t>
   </si>
   <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 415,00 zł</t>
-  </si>
-  <si>
-    <t>1 726,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>1 485,00 zł</t>
-  </si>
-  <si>
-    <t>1 856,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>604,00 zł</t>
-  </si>
-  <si>
-    <t>664,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 052,00 zł</t>
-  </si>
-  <si>
-    <t>1 283,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>964,00 zł</t>
-  </si>
-  <si>
-    <t>1 099,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 212,00 zł</t>
-  </si>
-  <si>
-    <t>1 479,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>502,00 zł</t>
-  </si>
-  <si>
-    <t>643,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>623,00 zł</t>
-  </si>
-  <si>
-    <t>829,00 zł</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 300,00 zł</t>
-  </si>
-  <si>
-    <t>1 651,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 166,00 zł</t>
-  </si>
-  <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>510,00 zł</t>
-  </si>
-  <si>
-    <t>622,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>1 232,00 zł</t>
-  </si>
-  <si>
-    <t>1 626,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>987,00 zł</t>
-  </si>
-  <si>
-    <t>1 115,00 zł</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 015,00 zł</t>
-  </si>
-  <si>
-    <t>1 137,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>1 633,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>546,00 zł</t>
-  </si>
-  <si>
-    <t>666,00 zł</t>
-  </si>
-  <si>
-    <t>765,00 zł</t>
-  </si>
-  <si>
-    <t>972,00 zł</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>1 385,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 275,00 zł</t>
-  </si>
-  <si>
-    <t>1 772,00 zł</t>
-  </si>
-  <si>
-    <t>1 402,00 zł</t>
-  </si>
-  <si>
-    <t>1 542,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 127,00 zł</t>
-  </si>
-  <si>
-    <t>1 431,00 zł</t>
-  </si>
-  <si>
-    <t>988,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>1 346,00 zł</t>
-  </si>
-  <si>
-    <t>1 817,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>1 308,00 zł</t>
-  </si>
-  <si>
-    <t>1 517,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>963,00 zł</t>
-  </si>
-  <si>
-    <t>1 194,00 zł</t>
-  </si>
-  <si>
-    <t>951,00 zł</t>
-  </si>
-  <si>
-    <t>1 141,00 zł</t>
-  </si>
-  <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>1 836,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>503,00 zł</t>
-  </si>
-  <si>
-    <t>644,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>701,00 zł</t>
-  </si>
-  <si>
-    <t>855,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 390,00 zł</t>
+  </si>
+  <si>
+    <t>1 571,00 zł</t>
+  </si>
+  <si>
+    <t>681,00 zł</t>
+  </si>
+  <si>
+    <t>913,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1527,13 +1461,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
@@ -1545,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>6</v>
@@ -1554,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1566,7 +1500,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
         <v>6</v>
@@ -1575,10 +1509,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1587,19 +1521,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1608,19 +1542,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1629,16 +1563,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -1650,19 +1584,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1674,10 +1608,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -1692,19 +1626,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1713,19 +1647,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
         <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1740,13 +1674,13 @@
         <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1755,16 +1689,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
         <v>6</v>
@@ -1889,7 +1823,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1904,7 +1838,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1919,7 +1853,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1934,7 +1868,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1949,7 +1883,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1964,7 +1898,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2081,7 +2015,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2093,7 +2027,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2105,7 +2039,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2117,7 +2051,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2129,7 +2063,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2177,7 +2111,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2189,7 +2123,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2201,7 +2135,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2213,7 +2147,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2225,7 +2159,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2273,7 +2207,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2285,7 +2219,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2297,7 +2231,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2309,7 +2243,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2321,7 +2255,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2355,10 +2289,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A19" sqref="A19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2464,25 +2398,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2490,31 +2424,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2522,19 +2456,19 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
@@ -2543,10 +2477,10 @@
         <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2554,31 +2488,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
         <v>6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2586,10 +2520,10 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2604,13 +2538,13 @@
         <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2618,70 +2552,54 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
       </c>
       <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5</v>
       </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
       <c r="J17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2695,27 +2613,11 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2728,10 +2630,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2743,7 +2645,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2753,265 +2655,210 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B27" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B28" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="B29" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3029,10 +2876,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49:B53"/>
+      <selection activeCell="A46" sqref="A46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3048,7 +2895,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3058,75 +2905,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3134,22 +2981,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3157,22 +3004,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3180,22 +3027,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3203,22 +3050,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3226,22 +3073,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3249,22 +3096,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3272,22 +3119,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3295,22 +3142,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3318,22 +3165,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3341,22 +3188,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3364,22 +3211,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3387,22 +3234,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3410,22 +3257,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>244</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3433,22 +3280,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3456,22 +3303,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3479,22 +3326,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3502,22 +3349,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3525,22 +3372,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3548,22 +3395,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3571,22 +3418,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3594,22 +3441,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3617,22 +3464,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3640,22 +3487,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3663,22 +3510,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="F39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3686,22 +3533,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3709,22 +3556,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3732,136 +3579,67 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>315</v>
+      <c r="A45" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>185</v>
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>318</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>319</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>320</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_037.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_037.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>ZESTAW ZADAŃ NR 37 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 37 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,50</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>0,80</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>10,10</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>3,90</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,60</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>6,95</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>12,50</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>16,62</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>30,43</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>18,67</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>23,53</t>
-  </si>
-  <si>
-    <t>22,26</t>
-  </si>
-  <si>
-    <t>3,03</t>
-  </si>
-  <si>
-    <t>25,28</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>10,00</t>
-  </si>
-  <si>
-    <t>28,08</t>
-  </si>
-  <si>
-    <t>30,28</t>
-  </si>
-  <si>
-    <t>5,26</t>
-  </si>
-  <si>
-    <t>19,76</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -409,117 +331,78 @@
     <t>24.02.1978</t>
   </si>
   <si>
-    <t>9 332,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Szymański</t>
   </si>
   <si>
     <t>09.05.2002</t>
   </si>
   <si>
-    <t>11 344,00 zł</t>
-  </si>
-  <si>
     <t>Adam Zieliński</t>
   </si>
   <si>
     <t>22.11.1995</t>
   </si>
   <si>
-    <t>10 952,00 zł</t>
-  </si>
-  <si>
     <t>Anna Górska</t>
   </si>
   <si>
     <t>01.06.1975</t>
   </si>
   <si>
-    <t>11 066,00 zł</t>
-  </si>
-  <si>
     <t>Jan Zieliński</t>
   </si>
   <si>
     <t>05.12.1979</t>
   </si>
   <si>
-    <t>4 673,00 zł</t>
-  </si>
-  <si>
     <t>Anna Wójcik</t>
   </si>
   <si>
     <t>24.11.2001</t>
   </si>
   <si>
-    <t>10 741,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Kaźmierczak</t>
   </si>
   <si>
     <t>20.05.1975</t>
   </si>
   <si>
-    <t>14 832,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Kaczmarek</t>
   </si>
   <si>
     <t>11.10.1997</t>
   </si>
   <si>
-    <t>6 068,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kowalczyk</t>
   </si>
   <si>
     <t>07.04.1998</t>
   </si>
   <si>
-    <t>10 000,00 zł</t>
-  </si>
-  <si>
     <t>Lena Górska</t>
   </si>
   <si>
     <t>26.11.1992</t>
   </si>
   <si>
-    <t>12 384,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Nowak</t>
   </si>
   <si>
     <t>22.05.2000</t>
   </si>
   <si>
-    <t>4 963,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Piekarska</t>
   </si>
   <si>
     <t>14.06.1988</t>
   </si>
   <si>
-    <t>8 547,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Krawczyk</t>
   </si>
   <si>
     <t>15.02.1998</t>
   </si>
   <si>
-    <t>7 251,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -532,9 +415,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -595,12 +475,6 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 033,00 zł</t>
-  </si>
-  <si>
-    <t>1 374,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -613,12 +487,6 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 453,00 zł</t>
-  </si>
-  <si>
-    <t>2 020,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -631,12 +499,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 249,00 zł</t>
-  </si>
-  <si>
-    <t>1 574,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
@@ -646,12 +508,6 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 480,00 zł</t>
-  </si>
-  <si>
-    <t>1 820,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -661,12 +517,6 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 210,00 zł</t>
-  </si>
-  <si>
-    <t>1 428,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -676,232 +526,100 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>526,00 zł</t>
-  </si>
-  <si>
-    <t>673,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>maj</t>
   </si>
   <si>
-    <t>1 114,00 zł</t>
-  </si>
-  <si>
-    <t>1 548,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 432,00 zł</t>
-  </si>
-  <si>
-    <t>1 590,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 145,00 zł</t>
-  </si>
-  <si>
-    <t>1 500,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 376,00 zł</t>
-  </si>
-  <si>
-    <t>1 610,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>648,00 zł</t>
-  </si>
-  <si>
-    <t>791,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
-    <t>1 797,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>928,00 zł</t>
-  </si>
-  <si>
-    <t>1 206,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>1 311,00 zł</t>
-  </si>
-  <si>
-    <t>1 521,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>672,00 zł</t>
-  </si>
-  <si>
-    <t>907,00 zł</t>
-  </si>
-  <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 373,00 zł</t>
-  </si>
-  <si>
-    <t>1 812,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 011,00 zł</t>
-  </si>
-  <si>
-    <t>1 213,00 zł</t>
-  </si>
-  <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 320,00 zł</t>
-  </si>
-  <si>
-    <t>1 756,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 433,00 zł</t>
-  </si>
-  <si>
-    <t>1 863,00 zł</t>
-  </si>
-  <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 100,00 zł</t>
-  </si>
-  <si>
-    <t>1 375,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
-    <t>1 352,00 zł</t>
-  </si>
-  <si>
-    <t>1 528,00 zł</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 160,00 zł</t>
-  </si>
-  <si>
-    <t>1 346,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>1 112,00 zł</t>
-  </si>
-  <si>
-    <t>1 357,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>902,00 zł</t>
-  </si>
-  <si>
-    <t>1 182,00 zł</t>
-  </si>
-  <si>
-    <t>1 479,00 zł</t>
-  </si>
-  <si>
-    <t>1 671,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 390,00 zł</t>
-  </si>
-  <si>
-    <t>1 571,00 zł</t>
-  </si>
-  <si>
-    <t>681,00 zł</t>
-  </si>
-  <si>
-    <t>913,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -923,7 +641,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -980,14 +700,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -998,8 +718,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1030,30 +750,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,7 +1077,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1431,25 +1152,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1472,7 +1193,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1493,7 +1214,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1514,7 +1235,7 @@
       <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1535,7 +1256,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1556,7 +1277,7 @@
       <c r="F21" s="3">
         <v>6</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1577,7 +1298,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1598,7 +1319,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1619,7 +1340,7 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1640,7 +1361,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1661,7 +1382,7 @@
       <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1682,7 +1403,7 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1703,27 +1424,17 @@
       <c r="F28" s="3">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1757,7 +1468,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1777,7 +1488,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1787,29 +1498,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1817,99 +1528,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.5</v>
       </c>
       <c r="D13" s="3">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.8</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10.1</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.4</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.9</v>
       </c>
       <c r="D17" s="3">
         <v>8</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2.6</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1942,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1967,113 +1678,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>6.95</v>
       </c>
       <c r="C15" s="3">
         <v>29</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>12.5</v>
       </c>
       <c r="C16" s="3">
         <v>36</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>16.62</v>
       </c>
       <c r="C17" s="3">
         <v>30</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>30.43</v>
       </c>
       <c r="C18" s="3">
         <v>37</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>18.67</v>
       </c>
       <c r="C19" s="3">
         <v>41</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2082,94 +1793,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>7.5</v>
       </c>
       <c r="C24" s="3">
         <v>33</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>23.53</v>
       </c>
       <c r="C25" s="3">
         <v>10</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>22.26</v>
       </c>
       <c r="C26" s="3">
         <v>27</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3.03</v>
       </c>
       <c r="C27" s="3">
         <v>41</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>25.28</v>
       </c>
       <c r="C28" s="3">
         <v>10</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2178,98 +1889,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10</v>
       </c>
       <c r="C33" s="3">
         <v>47</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>28.079999999999998</v>
       </c>
       <c r="C34" s="3">
         <v>30</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>30.28</v>
       </c>
       <c r="C35" s="3">
         <v>6</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>5.26</v>
       </c>
       <c r="C36" s="3">
         <v>38</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>19.76</v>
       </c>
       <c r="C37" s="3">
         <v>24</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2292,7 +2003,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2312,90 +2023,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2418,16 +2129,16 @@
       <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2450,16 +2161,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -2482,16 +2193,16 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2514,16 +2225,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2546,16 +2257,16 @@
       <c r="J16" s="3">
         <v>4</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2578,40 +2289,40 @@
       <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2644,222 +2355,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>118</v>
+      <c r="A1" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>126</v>
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9332</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11344</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10952</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
+      </c>
+      <c r="C14" s="7">
+        <v>11066</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4673</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10741</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14832</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6068</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <v>12384</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4963</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8547</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7251</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>166</v>
+      <c r="A26" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>170</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>170</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>170</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2894,86 +2599,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>171</v>
+      <c r="A1" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>188</v>
+      <c r="A15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2981,22 +2686,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1033</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1374</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3004,22 +2709,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1453</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2020</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3027,22 +2732,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1249</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1574</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3050,22 +2755,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1480</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1820</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3073,22 +2778,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1210</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1428</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3096,22 +2801,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>219</v>
+        <v>167</v>
+      </c>
+      <c r="D21" s="7">
+        <v>526</v>
+      </c>
+      <c r="E21" s="7">
+        <v>673</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3119,22 +2824,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>223</v>
+        <v>150</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1114</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1548</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3142,22 +2847,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>227</v>
+        <v>171</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1432</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1590</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3165,22 +2870,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>231</v>
+        <v>173</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1145</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1500</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3188,22 +2893,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>235</v>
+        <v>175</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1376</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1610</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3211,22 +2916,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
+      </c>
+      <c r="D26" s="7">
+        <v>648</v>
+      </c>
+      <c r="E26" s="7">
+        <v>791</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3234,22 +2939,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>242</v>
+        <v>173</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1404</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1797</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3257,22 +2962,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>246</v>
+        <v>180</v>
+      </c>
+      <c r="D28" s="7">
+        <v>928</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1206</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3280,22 +2985,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>250</v>
+        <v>180</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1311</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1521</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3303,22 +3008,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>254</v>
+        <v>177</v>
+      </c>
+      <c r="D30" s="7">
+        <v>672</v>
+      </c>
+      <c r="E30" s="7">
+        <v>907</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3326,22 +3031,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>257</v>
+        <v>185</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1373</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1812</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3349,22 +3054,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>261</v>
+        <v>187</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1011</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1213</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3372,22 +3077,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>264</v>
+        <v>188</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1320</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1756</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3395,22 +3100,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>268</v>
+        <v>158</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1433</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1863</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3418,22 +3123,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>271</v>
+        <v>191</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1375</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3441,22 +3146,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>274</v>
+        <v>175</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1352</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1528</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3464,22 +3169,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>277</v>
+        <v>193</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1160</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1346</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3487,22 +3192,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>281</v>
+        <v>180</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1112</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1357</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3510,22 +3215,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>285</v>
+        <v>197</v>
+      </c>
+      <c r="D39" s="7">
+        <v>902</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1182</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3533,22 +3238,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>287</v>
+        <v>164</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1479</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1671</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3556,22 +3261,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>291</v>
+        <v>199</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1571</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3579,68 +3284,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>293</v>
+        <v>188</v>
+      </c>
+      <c r="D42" s="7">
+        <v>681</v>
+      </c>
+      <c r="E42" s="7">
+        <v>913</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>166</v>
+      <c r="A45" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>170</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>295</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>170</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>296</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>170</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>297</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>170</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>170</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_037.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_037.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>ZESTAW ZADAŃ NR 37 - CZĘŚĆ 1</t>
   </si>
@@ -61,361 +62,406 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Wojciech Kaczmarek</t>
-  </si>
-  <si>
-    <t>Emilia Olszewska</t>
-  </si>
-  <si>
-    <t>Oliwia Górska</t>
+    <t>Aleksander Piotrowski</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>Kacper Woźniak</t>
+  </si>
+  <si>
+    <t>Antoni Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Lena Górska</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 37 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 37 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Kubiak</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>Adam Nowak</t>
+  </si>
+  <si>
+    <t>Jan Kamiński</t>
+  </si>
+  <si>
+    <t>Julia Król</t>
+  </si>
+  <si>
+    <t>Mikołaj Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Krawczyk</t>
+  </si>
+  <si>
+    <t>Jakub Lewandowski</t>
+  </si>
+  <si>
+    <t>Antoni Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Kubiak</t>
+  </si>
+  <si>
+    <t>Lena Jaworska</t>
+  </si>
+  <si>
+    <t>Szymon Kowalczyk</t>
+  </si>
+  <si>
+    <t>Julia Maciejewska</t>
+  </si>
+  <si>
+    <t>Jan Krawczyk</t>
+  </si>
+  <si>
+    <t>Adam Lewandowski</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Amelia Piekarska</t>
   </si>
   <si>
     <t>Lena Malinowska</t>
   </si>
   <si>
-    <t>Wojciech Jankowski</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 37 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 37 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Zuzanna Zawadzka</t>
-  </si>
-  <si>
-    <t>24.02.1978</t>
-  </si>
-  <si>
-    <t>Mikołaj Szymański</t>
-  </si>
-  <si>
-    <t>09.05.2002</t>
-  </si>
-  <si>
-    <t>Adam Zieliński</t>
-  </si>
-  <si>
-    <t>22.11.1995</t>
-  </si>
-  <si>
-    <t>Anna Górska</t>
-  </si>
-  <si>
-    <t>01.06.1975</t>
-  </si>
-  <si>
-    <t>Jan Zieliński</t>
-  </si>
-  <si>
-    <t>05.12.1979</t>
-  </si>
-  <si>
-    <t>Anna Wójcik</t>
-  </si>
-  <si>
-    <t>24.11.2001</t>
-  </si>
-  <si>
-    <t>Amelia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>20.05.1975</t>
-  </si>
-  <si>
-    <t>Szymon Kaczmarek</t>
-  </si>
-  <si>
-    <t>11.10.1997</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalczyk</t>
-  </si>
-  <si>
-    <t>07.04.1998</t>
-  </si>
-  <si>
-    <t>Lena Górska</t>
-  </si>
-  <si>
-    <t>26.11.1992</t>
-  </si>
-  <si>
-    <t>Wojciech Nowak</t>
-  </si>
-  <si>
-    <t>22.05.2000</t>
-  </si>
-  <si>
-    <t>Emilia Piekarska</t>
-  </si>
-  <si>
-    <t>14.06.1988</t>
-  </si>
-  <si>
-    <t>Jakub Krawczyk</t>
-  </si>
-  <si>
-    <t>15.02.1998</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Amelia Borkowska</t>
+  </si>
+  <si>
+    <t>Jan Kozłowski</t>
+  </si>
+  <si>
+    <t>Kacper Kowalski</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
+  </si>
+  <si>
+    <t>Antoni Szymański</t>
+  </si>
+  <si>
+    <t>Szymon Piotrowski</t>
+  </si>
+  <si>
+    <t>Emilia Wilk</t>
+  </si>
+  <si>
+    <t>Mikołaj Wojciechowski</t>
+  </si>
+  <si>
+    <t>Antoni Zieliński</t>
+  </si>
+  <si>
+    <t>Szymon Zieliński</t>
+  </si>
+  <si>
+    <t>Emilia Sadowska</t>
+  </si>
+  <si>
+    <t>Mikołaj Jankowski</t>
+  </si>
+  <si>
+    <t>Aleksander Wójcik</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -469,157 +515,148 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
     <t>czerwiec</t>
   </si>
   <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
   </si>
   <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -691,7 +728,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,12 +751,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -750,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -761,13 +792,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1074,7 +1104,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1179,19 +1209,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1200,19 +1230,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
         <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1224,16 +1254,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1242,19 +1272,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1266,16 +1296,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1284,19 +1314,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
         <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1305,19 +1335,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1329,16 +1359,16 @@
         <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1350,16 +1380,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1368,19 +1398,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
         <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>6</v>
       </c>
       <c r="D26" s="3">
         <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1389,16 +1419,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
         <v>5</v>
@@ -1410,19 +1440,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
         <v>3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="3">
-        <v>5</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1435,6 +1465,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1468,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1488,7 +1524,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1498,29 +1534,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1528,99 +1564,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2.5</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5.9</v>
       </c>
       <c r="D13" s="3">
-        <v>7</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.8</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10.1</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.5</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3.9</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.8</v>
       </c>
       <c r="D17" s="3">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2.6</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2.3</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1637,10 +1673,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1653,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1678,27 +1714,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1706,85 +1742,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>6.95</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>17.9</v>
       </c>
       <c r="C15" s="3">
-        <v>29</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>12.5</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.89</v>
       </c>
       <c r="C16" s="3">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>16.62</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>28.26</v>
       </c>
       <c r="C17" s="3">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>30.43</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2.22</v>
       </c>
       <c r="C18" s="3">
-        <v>37</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>18.67</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>21.36</v>
       </c>
       <c r="C19" s="3">
-        <v>41</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1793,8 +1829,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1802,85 +1838,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>7.5</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>21.36</v>
       </c>
       <c r="C24" s="3">
-        <v>33</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>23.53</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>29.030000000000001</v>
       </c>
       <c r="C25" s="3">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>22.26</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>19.48</v>
       </c>
       <c r="C26" s="3">
-        <v>27</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3.03</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>24.31</v>
       </c>
       <c r="C27" s="3">
-        <v>41</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>25.28</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>14.53</v>
       </c>
       <c r="C28" s="3">
-        <v>10</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1889,8 +1925,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1898,89 +1934,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>28.94</v>
       </c>
       <c r="C33" s="3">
         <v>47</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>28.079999999999998</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>21.48</v>
       </c>
       <c r="C34" s="3">
-        <v>30</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>30.28</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2.79</v>
       </c>
       <c r="C35" s="3">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>5.26</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>10.94</v>
       </c>
       <c r="C36" s="3">
-        <v>38</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>19.76</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>30.6</v>
       </c>
       <c r="C37" s="3">
-        <v>24</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2000,10 +2044,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L19"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2023,108 +2067,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
         <v>3</v>
@@ -2135,31 +2179,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="3">
-        <v>6</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5</v>
-      </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2167,31 +2211,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
         <v>5</v>
       </c>
       <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>6</v>
       </c>
-      <c r="H14" s="3">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
       <c r="J14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2199,16 +2243,16 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -2217,13 +2261,13 @@
         <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2231,31 +2275,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="3">
-        <v>5</v>
-      </c>
       <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>4</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2263,54 +2307,70 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
       <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="3">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3">
         <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2321,14 +2381,30 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2341,10 +2417,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2355,216 +2431,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>92</v>
+      <c r="A1" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9332</v>
+        <v>107</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5005</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="7">
-        <v>11344</v>
+        <v>108</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3812</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="7">
-        <v>10952</v>
+        <v>109</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3775</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="7">
-        <v>11066</v>
+        <v>110</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4985</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4673</v>
+        <v>111</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9126</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="7">
-        <v>10741</v>
+      <c r="B16" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C16" s="8">
+        <v>11644</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14832</v>
+      <c r="B17" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C17" s="8">
+        <v>11092</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6068</v>
+        <v>114</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C18" s="8">
+        <v>14510</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10000</v>
+        <v>115</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="7">
-        <v>12384</v>
+        <v>116</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C20" s="8">
+        <v>8797</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4963</v>
+        <v>117</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2790</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="7">
-        <v>8547</v>
+        <v>118</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7951</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7">
-        <v>7251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C24" s="8">
+        <v>8704</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="2"/>
+      <c r="A27" s="16" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2581,10 +2668,239 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A10" sqref="A10:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="3">
+        <v>105</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="3">
+        <v>108</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="3">
+        <v>95</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="3">
+        <v>138</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="3">
+        <v>112</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3">
+        <v>170</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>183</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3">
+        <v>174</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="3">
+        <v>152</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="3">
+        <v>90</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="3">
+        <v>158</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="3">
+        <v>116</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="3">
+        <v>126</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="3">
+        <v>141</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="3">
+        <v>121</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="3">
+        <v>99</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="3">
+        <v>196</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2599,86 +2915,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>131</v>
+      <c r="A1" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2686,22 +3002,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1033</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1374</v>
+        <v>165</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1103</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1324</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2709,22 +3025,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1453</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2020</v>
+        <v>169</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1069</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1432</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2732,22 +3048,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1249</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1574</v>
+        <v>173</v>
+      </c>
+      <c r="D18" s="8">
+        <v>718</v>
+      </c>
+      <c r="E18" s="8">
+        <v>941</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2755,22 +3071,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1480</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1820</v>
+        <v>176</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1087</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1511</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2778,22 +3094,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1210</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1428</v>
+        <v>179</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1215</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1385</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2801,22 +3117,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1437</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1753</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="7">
-        <v>526</v>
-      </c>
-      <c r="E21" s="7">
-        <v>673</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2824,22 +3140,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1114</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1548</v>
+        <v>165</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1370</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1575</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2847,22 +3163,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1432</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1590</v>
+        <v>186</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1249</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1374</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2870,22 +3186,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1145</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1500</v>
+        <v>188</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1306</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1711</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2893,22 +3209,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1376</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1610</v>
+        <v>188</v>
+      </c>
+      <c r="D25" s="8">
+        <v>786</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1061</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2916,22 +3232,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="7">
-        <v>648</v>
-      </c>
-      <c r="E26" s="7">
-        <v>791</v>
+        <v>191</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1366</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1612</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2939,22 +3255,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1404</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1797</v>
+        <v>186</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1061</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1443</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2962,22 +3278,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="7">
-        <v>928</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1206</v>
+        <v>193</v>
+      </c>
+      <c r="D28" s="8">
+        <v>887</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1038</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2985,22 +3301,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1311</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1521</v>
+        <v>197</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1217</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1667</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3008,22 +3324,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="8">
+        <v>853</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1083</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="7">
-        <v>672</v>
-      </c>
-      <c r="E30" s="7">
-        <v>907</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3031,22 +3347,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1373</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1812</v>
+        <v>200</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1443</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1905</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3054,22 +3370,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1011</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1213</v>
+        <v>193</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1165</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1445</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3077,22 +3393,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1320</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1756</v>
+        <v>202</v>
+      </c>
+      <c r="D33" s="8">
+        <v>776</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1055</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3100,22 +3416,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1433</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1863</v>
+        <v>204</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1068</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1410</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3123,22 +3439,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1100</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1375</v>
+        <v>198</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1236</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1718</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3146,22 +3462,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1352</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1528</v>
+        <v>169</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1338</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1632</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3169,22 +3485,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1160</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1346</v>
+        <v>205</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1426</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1797</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>194</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3192,22 +3508,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1112</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1357</v>
+        <v>200</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1290</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1483</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3215,22 +3531,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="7">
-        <v>902</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1182</v>
+        <v>202</v>
+      </c>
+      <c r="D39" s="8">
+        <v>978</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1105</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3238,22 +3554,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1479</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1671</v>
+        <v>208</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1370</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1507</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3261,22 +3577,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1390</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1571</v>
+        <v>204</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1466</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1613</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3284,58 +3600,104 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="7">
-        <v>681</v>
-      </c>
-      <c r="E42" s="7">
-        <v>913</v>
+        <v>205</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1309</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1440</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1443</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1833</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="D44" s="8">
+        <v>1362</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1703</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A47" s="16" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
